--- a/data/happy.xlsx
+++ b/data/happy.xlsx
@@ -29,18 +29,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>김규범</t>
   </si>
   <si>
-    <t>김정수</t>
+    <t>박성수</t>
   </si>
   <si>
-    <t>index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박성수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>김정수</t>
   </si>
 </sst>
 </file>
@@ -423,23 +421,23 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A7" sqref="A7:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -450,7 +448,7 @@
         <v>100</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D2">
         <v>100</v>
@@ -516,7 +514,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:B2 B1 A6 A3 C3 A4:C4 A5 D5 D6 D1 D2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:D6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/happy.xlsx
+++ b/data/happy.xlsx
@@ -1,61 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27211"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a09239/Documents/workspace/Erection/Erection/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17620" tabRatio="500"/>
-  </bookViews>
   <sheets>
-    <sheet name="log" sheetId="1" r:id="rId1"/>
+    <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
+    <sheet name="log" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>김규범</t>
-  </si>
-  <si>
-    <t>박성수</t>
-  </si>
-  <si>
-    <t>김정수</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -84,15 +47,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="기본" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -417,58 +375,180 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="str">
+        <v>seed</v>
+      </c>
+      <c r="C1" t="str">
+        <v>rate</v>
+      </c>
+      <c r="D1" t="str">
+        <v>balance</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>김규범</v>
+      </c>
+      <c r="B2">
+        <v>400</v>
+      </c>
+      <c r="C2">
+        <f>IFERROR(B2/SUM(B2:B4)+(B3/SUM(B2:B4)-0.5*B3*(2-B6)/SUM(B2:B4))*B2/SUM(B2,B4),0)</f>
+        <v>0.35416666666666663</v>
+      </c>
+      <c r="D2">
+        <f>ROUNDDOWN(B7*C2,0)</f>
+        <v>424</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>박성수</v>
+      </c>
+      <c r="B3">
+        <v>400</v>
+      </c>
+      <c r="C3">
+        <f>IFERROR(0.5*B3*(2-B6)/SUM(B2:B4),0)</f>
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="D3">
+        <f>TRUNC(B7*C3,0)</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>김정수</v>
+      </c>
+      <c r="B4">
+        <v>400</v>
+      </c>
+      <c r="C4">
+        <f>IFERROR(B4/SUM(B2:B4)+(B3/SUM(B2:B4)-0.5*B3*(2-B6)/SUM(B2:B4))*B4/SUM(B2,B4),0)</f>
+        <v>0.35416666666666663</v>
+      </c>
+      <c r="D4">
+        <f>TRUNC(B7*C4,0)</f>
+        <v>424</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>수수료</v>
+      </c>
+      <c r="B6">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>total</v>
+      </c>
+      <c r="B7">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="str">
+        <v>추가금액(USD)</v>
+      </c>
+      <c r="C9" t="str">
+        <v>배분율(%)</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>김규범</v>
+      </c>
+      <c r="C10" t="str">
+        <f>IFERROR(B10/SUM($B$10:$B$12),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>김정수</v>
+      </c>
+      <c r="C11" t="str">
+        <f>IFERROR(B11/SUM($B$10:$B$12),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>박성수</v>
+      </c>
+      <c r="C12" t="str">
+        <f>IFERROR(B12/SUM($B$10:$B$12),"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:D12"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1">
+      <c r="A1" t="str">
+        <v>index</v>
+      </c>
+      <c r="B1" t="str">
+        <v>김규범</v>
+      </c>
+      <c r="C1" t="str">
+        <v>박성수</v>
+      </c>
+      <c r="D1" t="str">
+        <v>김정수</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -479,42 +559,41 @@
         <v>100</v>
       </c>
       <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D5">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D6">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:D6" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/happy.xlsx
+++ b/data/happy.xlsx
@@ -1,25 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView xWindow="510" yWindow="525" windowWidth="11535" windowHeight="4950" activeTab="1"/>
+  </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
     <sheet name="log" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+  <si>
+    <t>seed</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>balance</t>
+  </si>
+  <si>
+    <t>김규범</t>
+  </si>
+  <si>
+    <t>박성수</t>
+  </si>
+  <si>
+    <t>김정수</t>
+  </si>
+  <si>
+    <t>수수료</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>추가금액(USD)</t>
+  </si>
+  <si>
+    <t>배분율(%)</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -47,10 +94,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -375,116 +427,119 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" t="str">
-        <v>seed</v>
-      </c>
-      <c r="C1" t="str">
-        <v>rate</v>
-      </c>
-      <c r="D1" t="str">
-        <v>balance</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>김규범</v>
+    <row r="1" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <f>IFERROR(B2/SUM(B2:B4)+(B3/SUM(B2:B4)-0.5*B3*(2-B6)/SUM(B2:B4))*B2/SUM(B2,B4),0)</f>
-        <v>0.35416666666666663</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <f>ROUNDDOWN(B7*C2,0)</f>
-        <v>424</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>박성수</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <f>IFERROR(0.5*B3*(2-B6)/SUM(B2:B4),0)</f>
-        <v>0.2916666666666667</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <f>TRUNC(B7*C3,0)</f>
-        <v>350</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>김정수</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <f>IFERROR(B4/SUM(B2:B4)+(B3/SUM(B2:B4)-0.5*B3*(2-B6)/SUM(B2:B4))*B4/SUM(B2,B4),0)</f>
-        <v>0.35416666666666663</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <f>TRUNC(B7*C4,0)</f>
-        <v>424</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>수수료</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
       </c>
       <c r="B6">
         <v>0.25</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>total</v>
+    <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="str">
-        <v>추가금액(USD)</v>
-      </c>
-      <c r="C9" t="str">
-        <v>배분율(%)</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>김규범</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>3</v>
       </c>
       <c r="C10" t="str">
         <f>IFERROR(B10/SUM($B$10:$B$12),"")</f>
         <v/>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>김정수</v>
+    <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>5</v>
       </c>
       <c r="C11" t="str">
         <f>IFERROR(B11/SUM($B$10:$B$12),"")</f>
         <v/>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>박성수</v>
+    <row r="12" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>4</v>
       </c>
       <c r="C12" t="str">
         <f>IFERROR(B12/SUM($B$10:$B$12),"")</f>
@@ -492,35 +547,40 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D12"/>
+    <ignoredError sqref="A1:D1 A5:D6 A2 C2:D2 A3 C3:D3 A4 C4:D4 A8:D12 A7 C7:D7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>index</v>
-      </c>
-      <c r="B1" t="str">
-        <v>김규범</v>
-      </c>
-      <c r="C1" t="str">
-        <v>박성수</v>
-      </c>
-      <c r="D1" t="str">
-        <v>김정수</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -534,66 +594,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3">
+    <row r="16" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>100</v>
-      </c>
-      <c r="C3">
-        <v>100</v>
-      </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
+      <c r="D16">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>100</v>
-      </c>
-      <c r="C4">
-        <v>100</v>
-      </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>100</v>
-      </c>
-      <c r="C5">
-        <v>100</v>
-      </c>
-      <c r="D5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>100</v>
-      </c>
-      <c r="C6">
-        <v>100</v>
-      </c>
-      <c r="D6">
-        <v>100</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D6"/>
+    <ignoredError sqref="A1:D16" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/happy.xlsx
+++ b/data/happy.xlsx
@@ -434,9 +434,9 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -447,7 +447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -463,7 +463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -479,7 +479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -503,7 +503,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -511,7 +511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -519,7 +519,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -528,7 +528,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -537,7 +537,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -558,15 +558,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -580,7 +580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -592,27 +592,13 @@
       </c>
       <c r="D2">
         <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:D16" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:D15" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/happy.xlsx
+++ b/data/happy.xlsx
@@ -1,72 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <bookViews>
-    <workbookView xWindow="510" yWindow="525" windowWidth="11535" windowHeight="4950" activeTab="1"/>
-  </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
     <sheet name="log" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
-  <si>
-    <t>seed</t>
-  </si>
-  <si>
-    <t>rate</t>
-  </si>
-  <si>
-    <t>balance</t>
-  </si>
-  <si>
-    <t>김규범</t>
-  </si>
-  <si>
-    <t>박성수</t>
-  </si>
-  <si>
-    <t>김정수</t>
-  </si>
-  <si>
-    <t>수수료</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>추가금액(USD)</t>
-  </si>
-  <si>
-    <t>배분율(%)</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -94,15 +47,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -427,119 +375,116 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="B1" t="str">
+        <v>seed</v>
+      </c>
+      <c r="C1" t="str">
+        <v>rate</v>
+      </c>
+      <c r="D1" t="str">
+        <v>balance</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>김규범</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C2">
         <f>IFERROR(B2/SUM(B2:B4)+(B3/SUM(B2:B4)-0.5*B3*(2-B6)/SUM(B2:B4))*B2/SUM(B2,B4),0)</f>
-        <v>0</v>
+        <v>0.35416666666666663</v>
       </c>
       <c r="D2">
         <f>ROUNDDOWN(B7*C2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>박성수</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C3">
         <f>IFERROR(0.5*B3*(2-B6)/SUM(B2:B4),0)</f>
-        <v>0</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="D3">
         <f>TRUNC(B7*C3,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>김정수</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C4">
         <f>IFERROR(B4/SUM(B2:B4)+(B3/SUM(B2:B4)-0.5*B3*(2-B6)/SUM(B2:B4))*B4/SUM(B2,B4),0)</f>
-        <v>0</v>
+        <v>0.35416666666666663</v>
       </c>
       <c r="D4">
         <f>TRUNC(B7*C4,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>수수료</v>
       </c>
       <c r="B6">
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>total</v>
       </c>
       <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>3</v>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="str">
+        <v>추가금액(USD)</v>
+      </c>
+      <c r="C9" t="str">
+        <v>배분율(%)</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>김규범</v>
       </c>
       <c r="C10" t="str">
         <f>IFERROR(B10/SUM($B$10:$B$12),"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>5</v>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>김정수</v>
       </c>
       <c r="C11" t="str">
         <f>IFERROR(B11/SUM($B$10:$B$12),"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>4</v>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>박성수</v>
       </c>
       <c r="C12" t="str">
         <f>IFERROR(B12/SUM($B$10:$B$12),"")</f>
@@ -547,40 +492,35 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:D1 A5:D6 A2 C2:D2 A3 C3:D3 A4 C4:D4 A8:D12 A7 C7:D7" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D12"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1">
+      <c r="A1" t="str">
+        <v>index</v>
+      </c>
+      <c r="B1" t="str">
+        <v>김규범</v>
+      </c>
+      <c r="C1" t="str">
+        <v>박성수</v>
+      </c>
+      <c r="D1" t="str">
+        <v>김정수</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -594,11 +534,24 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:D15" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/happy.xlsx
+++ b/data/happy.xlsx
@@ -1,25 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView xWindow="510" yWindow="525" windowWidth="11535" windowHeight="4950"/>
+  </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
     <sheet name="log" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+  <si>
+    <t>seed</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>balance</t>
+  </si>
+  <si>
+    <t>김규범</t>
+  </si>
+  <si>
+    <t>박성수</t>
+  </si>
+  <si>
+    <t>김정수</t>
+  </si>
+  <si>
+    <t>수수료</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>추가금액(USD)</t>
+  </si>
+  <si>
+    <t>배분율(%)</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -47,10 +94,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -375,116 +427,119 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" t="str">
-        <v>seed</v>
-      </c>
-      <c r="C1" t="str">
-        <v>rate</v>
-      </c>
-      <c r="D1" t="str">
-        <v>balance</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>김규범</v>
+    <row r="1" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <f>IFERROR(B2/SUM(B2:B4)+(B3/SUM(B2:B4)-0.5*B3*(2-B6)/SUM(B2:B4))*B2/SUM(B2,B4),0)</f>
-        <v>0.35416666666666663</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <f>ROUNDDOWN(B7*C2,0)</f>
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>박성수</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <f>IFERROR(0.5*B3*(2-B6)/SUM(B2:B4),0)</f>
-        <v>0.2916666666666667</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <f>TRUNC(B7*C3,0)</f>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>김정수</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <f>IFERROR(B4/SUM(B2:B4)+(B3/SUM(B2:B4)-0.5*B3*(2-B6)/SUM(B2:B4))*B4/SUM(B2,B4),0)</f>
-        <v>0.35416666666666663</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <f>TRUNC(B7*C4,0)</f>
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>수수료</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
       </c>
       <c r="B6">
         <v>0.25</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>total</v>
+    <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="str">
-        <v>추가금액(USD)</v>
-      </c>
-      <c r="C9" t="str">
-        <v>배분율(%)</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>김규범</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>3</v>
       </c>
       <c r="C10" t="str">
         <f>IFERROR(B10/SUM($B$10:$B$12),"")</f>
         <v/>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>김정수</v>
+    <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>5</v>
       </c>
       <c r="C11" t="str">
         <f>IFERROR(B11/SUM($B$10:$B$12),"")</f>
         <v/>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>박성수</v>
+    <row r="12" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>4</v>
       </c>
       <c r="C12" t="str">
         <f>IFERROR(B12/SUM($B$10:$B$12),"")</f>
@@ -492,35 +547,39 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D12"/>
+    <ignoredError sqref="A1:D1 A5:D6 A2 C2:D2 A3 C3:D3 A4 C4:D4 A8:D12 A7 C7:D7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>index</v>
-      </c>
-      <c r="B1" t="str">
-        <v>김규범</v>
-      </c>
-      <c r="C1" t="str">
-        <v>박성수</v>
-      </c>
-      <c r="D1" t="str">
-        <v>김정수</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -534,24 +593,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>100</v>
-      </c>
-      <c r="C3">
-        <v>100</v>
-      </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
-    </row>
+    <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D3"/>
+    <ignoredError sqref="A1:D2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/happy.xlsx
+++ b/data/happy.xlsx
@@ -1,21 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27211"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a09239/Documents/workspace/Erection/Erection/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="510" yWindow="525" windowWidth="11535" windowHeight="4950"/>
+    <workbookView xWindow="240" yWindow="680" windowWidth="28560" windowHeight="17380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
     <sheet name="log" sheetId="2" r:id="rId2"/>
+    <sheet name="total" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>seed</t>
   </si>
@@ -26,28 +40,31 @@
     <t>balance</t>
   </si>
   <si>
+    <t>profit</t>
+  </si>
+  <si>
     <t>김규범</t>
   </si>
   <si>
+    <t>김정수</t>
+  </si>
+  <si>
     <t>박성수</t>
   </si>
   <si>
-    <t>김정수</t>
-  </si>
-  <si>
     <t>수수료</t>
   </si>
   <si>
     <t>total</t>
   </si>
   <si>
-    <t>추가금액(USD)</t>
-  </si>
-  <si>
-    <t>배분율(%)</t>
-  </si>
-  <si>
     <t>index</t>
+  </si>
+  <si>
+    <t>totalProfit</t>
+  </si>
+  <si>
+    <t>difference</t>
   </si>
 </sst>
 </file>
@@ -65,8 +82,7 @@
     <font>
       <sz val="8"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -94,7 +110,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="기본" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -428,15 +444,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -446,10 +460,13 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -462,10 +479,14 @@
         <f>ROUNDDOWN(B7*C2,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <f>IFERROR(D2-B2, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -478,10 +499,14 @@
         <f>TRUNC(B7*C3,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <f>IFERROR(D3-B3, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -494,92 +519,61 @@
         <f>TRUNC(B7*C4,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <f>IFERROR(D4-B4, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="str">
-        <f>IFERROR(B10/SUM($B$10:$B$12),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="str">
-        <f>IFERROR(B11/SUM($B$10:$B$12),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="str">
-        <f>IFERROR(B12/SUM($B$10:$B$12),"")</f>
-        <v/>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:D1 A5:D6 A2 C2:D2 A3 C3:D3 A4 C4:D4 A8:D12 A7 C7:D7" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:E7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -593,7 +587,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -601,4 +594,64 @@
     <ignoredError sqref="A1:D2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:C1 A4 A2 A3" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/data/happy.xlsx
+++ b/data/happy.xlsx
@@ -1,87 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27211"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a09239/Documents/workspace/Erection/Erection/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="240" yWindow="680" windowWidth="28560" windowHeight="17380" tabRatio="500"/>
-  </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
     <sheet name="log" sheetId="2" r:id="rId2"/>
     <sheet name="total" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
-  <si>
-    <t>seed</t>
-  </si>
-  <si>
-    <t>rate</t>
-  </si>
-  <si>
-    <t>balance</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>김규범</t>
-  </si>
-  <si>
-    <t>김정수</t>
-  </si>
-  <si>
-    <t>박성수</t>
-  </si>
-  <si>
-    <t>수수료</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>totalProfit</t>
-  </si>
-  <si>
-    <t>difference</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -110,15 +48,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="기본" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -443,30 +376,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
+    <row r="1">
+      <c r="B1" t="str">
+        <v>seed</v>
+      </c>
+      <c r="C1" t="str">
+        <v>rate</v>
+      </c>
+      <c r="D1" t="str">
+        <v>balance</v>
+      </c>
+      <c r="E1" t="str">
+        <v>profit</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>김규범</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -484,9 +416,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>김정수</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -504,9 +436,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>박성수</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -524,56 +456,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>수수료</v>
       </c>
       <c r="B6">
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>total</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E7" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E7"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1">
+      <c r="A1" t="str">
+        <v>index</v>
+      </c>
+      <c r="B1" t="str">
+        <v>김규범</v>
+      </c>
+      <c r="C1" t="str">
+        <v>김정수</v>
+      </c>
+      <c r="D1" t="str">
+        <v>박성수</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -587,47 +515,57 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:D2" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D3"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
+    <row r="1">
+      <c r="B1" t="str">
+        <v>totalProfit</v>
+      </c>
+      <c r="C1" t="str">
+        <v>difference</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>김규범</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>김정수</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -636,22 +574,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>박성수</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C1 A4 A2 A3" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/happy.xlsx
+++ b/data/happy.xlsx
@@ -1,25 +1,87 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27211"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a09239/Documents/workspace/Erection/Erection/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17620" tabRatio="500" activeTab="2"/>
+  </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
     <sheet name="log" sheetId="2" r:id="rId2"/>
     <sheet name="total" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+  <si>
+    <t>seed</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>balance</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>김규범</t>
+  </si>
+  <si>
+    <t>김정수</t>
+  </si>
+  <si>
+    <t>박성수</t>
+  </si>
+  <si>
+    <t>수수료</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>totalProfit</t>
+  </si>
+  <si>
+    <t>difference</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -48,10 +110,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="기본" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -376,29 +443,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" t="str">
-        <v>seed</v>
-      </c>
-      <c r="C1" t="str">
-        <v>rate</v>
-      </c>
-      <c r="D1" t="str">
-        <v>balance</v>
-      </c>
-      <c r="E1" t="str">
-        <v>profit</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>김규범</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -416,9 +484,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>김정수</v>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -436,9 +504,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>박성수</v>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -456,52 +524,56 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>수수료</v>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
       </c>
       <c r="B6">
         <v>0.25</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>total</v>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E7"/>
+    <ignoredError sqref="A1:E7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E4"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>index</v>
-      </c>
-      <c r="B1" t="str">
-        <v>김규범</v>
-      </c>
-      <c r="C1" t="str">
-        <v>김정수</v>
-      </c>
-      <c r="D1" t="str">
-        <v>박성수</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -515,57 +587,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>100</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D3"/>
+    <ignoredError sqref="A1:D2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" t="str">
-        <v>totalProfit</v>
-      </c>
-      <c r="C1" t="str">
-        <v>difference</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>김규범</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>김정수</v>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -574,21 +636,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>박성수</v>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
+    <ignoredError sqref="A1:C1 A4 A2 C2 A3 C3 C4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/happy.xlsx
+++ b/data/happy.xlsx
@@ -17,6 +17,7 @@
     <sheet name="total" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -446,7 +447,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -544,7 +547,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E7" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:E1 A7 C7:E7 A5:E6 A2 C2:E2 A3 C3:E3 A4 C4:E4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -554,7 +557,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E4"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -601,7 +604,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -651,7 +654,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C1 A4 A2 C2 A3 C3 C4" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C1 A4:C4 A2 A3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/happy.xlsx
+++ b/data/happy.xlsx
@@ -1,36 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27211"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a09239/Documents/workspace/Erection/Erection/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17620" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="510" yWindow="525" windowWidth="11535" windowHeight="4950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
     <sheet name="log" sheetId="2" r:id="rId2"/>
     <sheet name="total" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>seed</t>
   </si>
@@ -66,6 +52,10 @@
   </si>
   <si>
     <t>difference</t>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -83,7 +73,8 @@
     <font>
       <sz val="8"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -111,7 +102,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="기본" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -447,13 +438,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -467,7 +459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -487,7 +479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -507,7 +499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -527,15 +519,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -547,7 +539,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E1 A7 C7:E7 A5:E6 A2 C2:E2 A3 C3:E3 A4 C4:E4" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:E7 B1:E1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -557,12 +549,12 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D7" sqref="A3:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -576,7 +568,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -604,12 +596,12 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -617,7 +609,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -628,7 +620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -639,7 +631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -654,7 +646,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C1 A4:C4 A2 A3" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C1 A4 A2 A3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>